--- a/biology/Zoologie/Dolania_americana/Dolania_americana.xlsx
+++ b/biology/Zoologie/Dolania_americana/Dolania_americana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dolania americana, unique représentant du genre Dolania, est une espèce d'éphémères de la famille des Behningiidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dolania americana se rencontre dans le Sud-Est des États-Unis, notamment en Floride et en Alabama[1].
-Une seule espèce, Dolania americana est connue à ce jour[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dolania americana se rencontre dans le Sud-Est des États-Unis, notamment en Floride et en Alabama.
+Une seule espèce, Dolania americana est connue à ce jour.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Cycle de reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les adultes de Dolania americana émergent avant l’aube au début de l’été, s’accouplent et meurent en l’espace d’une trentaine de minutes. La femelle dépose ses œufs dans l'eau, et meurt cinq minutes après. Ce cycle de reproduction est considéré comme étant le plus court connu parmi les insectes[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les adultes de Dolania americana émergent avant l’aube au début de l’été, s’accouplent et meurent en l’espace d’une trentaine de minutes. La femelle dépose ses œufs dans l'eau, et meurt cinq minutes après. Ce cycle de reproduction est considéré comme étant le plus court connu parmi les insectes.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Dolania et l'espèce Dolania americana ont été décrits en 1959 par les entomologistes américains George F. Edmunds, Jr. (d) (1920-2006) et Jay R. Traver (d) (1894-1974)[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Dolania et l'espèce Dolania americana ont été décrits en 1959 par les entomologistes américains George F. Edmunds, Jr. (d) (1920-2006) et Jay R. Traver (d) (1894-1974).
 </t>
         </is>
       </c>
